--- a/data/Mel/023.xlsx
+++ b/data/Mel/023.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Technische Universität Hamburg - W1\SLRforABM - Dokumente\General\Content-analysis\codebook_ready\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbo001\Dropbox\files from BOX\articles\2022 SSC2022\SLR of ABMs journal paper\updated codebook codings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB86CD4-8933-48C1-B0EC-6D0321B1A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8184" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
     <sheet name="Coding_tool" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={EB172A46-D5EE-4F05-9D60-9F7989D17545}</author>
     <author>tc={A43A5BB8-3D17-4F2F-8C38-84A3F88596B2}</author>
@@ -46,84 +45,169 @@
     <author>tc={657ABFFA-A979-4E63-8026-86B142CDCFE2}</author>
     <author>tc={7C84BF30-5E61-42A4-B7CF-75B6476D9CD6}</author>
     <author>tc={08A49E7E-B6AD-4FFF-BB26-6E2BEA2EB13D}</author>
+    <author>tc={431E34FD-B631-4B12-8A6B-61AFA8561D31}</author>
     <author>Sebastian</author>
+    <author>tc={93047AFB-BFE6-4D88-88D0-5178F5382564}</author>
+    <author>tc={256795F3-0828-44FC-9AC5-BBE4107EDFFA}</author>
+    <author>tc={7F60CE47-D158-4D66-B96B-598923B29814}</author>
+    <author>tc={F6CF5D79-E3B9-4BF4-9D4C-E8D5F1750E1A}</author>
+    <author>tc={F573599B-FFA5-4FEF-BBA2-F76BEDEB2A5C}</author>
     <author>tc={99C26C65-61A7-490A-AD50-9154440AF5DE}</author>
     <author/>
-    <author>tc={3E682C6C-C64D-4A33-BF59-02273A10293A}</author>
   </authors>
   <commentList>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{EB172A46-D5EE-4F05-9D60-9F7989D17545}">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     When does it count as "varying"? Use paper 105 as lower limit example? Here the keyword search uses "agent-based" and "mulit-agent", is that varying enough?
 Antwort:
     Yes, this is enough. Add that to the description.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="1" shapeId="0" xr:uid="{A43A5BB8-3D17-4F2F-8C38-84A3F88596B2}">
+    <comment ref="C35" authorId="1" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     New in update from 02.08.22</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="2" shapeId="0" xr:uid="{5ECB6163-7AF9-4043-86D8-5A90A085D05B}">
+    <comment ref="C39" authorId="2" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Previously labeled "not indicated" becomes "no".
 Antwort:
     Formulation adjusted</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="3" shapeId="0" xr:uid="{EFAFF6B6-5CA5-4BEC-8971-0886533BF25A}">
+    <comment ref="C49" authorId="3" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Example adjusted</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="4" shapeId="0" xr:uid="{F069BF37-B53E-403B-B4DB-A8BDBD47E89C}">
+    <comment ref="C50" authorId="4" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     changed answer options</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="5" shapeId="0" xr:uid="{657ABFFA-A979-4E63-8026-86B142CDCFE2}">
+    <comment ref="C53" authorId="5" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Melania had the issue that it was disclosed in two parts. Should we make it a multiple-choice question?
 Or ask "where has it been mainly disclosed"?
 Antwort:
     MAke it a multi-select questions. Decided together with Melania</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="6" shapeId="0" xr:uid="{7C84BF30-5E61-42A4-B7CF-75B6476D9CD6}">
+    <comment ref="C60" authorId="6" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     changed answer options</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="7" shapeId="0" xr:uid="{08A49E7E-B6AD-4FFF-BB26-6E2BEA2EB13D}">
+    <comment ref="C61" authorId="7" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Deleted the question that was previously here (Q29) and replaced it what was previously Q20 but reformulated.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="8" shapeId="0" xr:uid="{3F06B522-91BE-4BC9-800E-226409F5FD15}">
+    <comment ref="F68" authorId="8" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Focus on mechanism / or focus on interaction/ Can we integrate Q33.1 with Q33.2?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I68" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +231,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="8" shapeId="0" xr:uid="{B390E87E-3197-43A6-905F-EE3925292EEC}">
+    <comment ref="F69" authorId="10" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Focus is on comparison</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +271,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="8" shapeId="0" xr:uid="{EC655058-3262-4369-9080-1CA48F278B1C}">
+    <comment ref="C71" authorId="11" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    formulation extended by challenges and recommendations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F71" authorId="12" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Be strikt what to include here. Only when it is a focus of the study, more then one paragraph.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I71" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +327,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="I73" authorId="8" shapeId="0" xr:uid="{1BED6FFF-C31D-462B-A44E-AC1905B5E206}">
+    <comment ref="F72" authorId="13" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Focus purely on formalization. Different from focus on "representation" in Q33.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I73" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,15 +367,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="9" shapeId="0" xr:uid="{99C26C65-61A7-490A-AD50-9154440AF5DE}">
+    <comment ref="F78" authorId="14" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">[Kommentarthread]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Kommentar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">    Apart from how something is modeled.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C86" authorId="15" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Extended the explanation to make clear what defines a structured comparison.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F86" authorId="16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,14 +457,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I86" authorId="11" shapeId="0" xr:uid="{3E682C6C-C64D-4A33-BF59-02273A10293A}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Extend: What is strucuted: a priori deductivly or inductivly but then with disclosed process.</t>
-      </text>
-    </comment>
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
@@ -262,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="201">
   <si>
     <t>How to use the coding tool</t>
   </si>
@@ -357,9 +562,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>{Flag as important and specify the question-ID. Seperate multiplie IDs with ";"}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -396,9 +598,6 @@
     <t>Own</t>
   </si>
   <si>
-    <t>{if yes, please reference and note down your thoughts}</t>
-  </si>
-  <si>
     <t>Part 2 - Sample selection</t>
   </si>
   <si>
@@ -450,15 +649,9 @@
     <t xml:space="preserve">Have the citations of initially found research items been searched for further relevant research items? </t>
   </si>
   <si>
-    <t xml:space="preserve">How many databases have been used in the sample selection process? </t>
-  </si>
-  <si>
     <t>integer or “n/a”?</t>
   </si>
   <si>
-    <t xml:space="preserve">If a database-driven search approach was conducted, which database(s) is (are) used? </t>
-  </si>
-  <si>
     <t>Multiple choice</t>
   </si>
   <si>
@@ -579,9 +772,6 @@
     <t>Generalization derived from the review which add to theory development beyond mere description</t>
   </si>
   <si>
-    <t>Identify the gaps / research avenues that have to be addressed</t>
-  </si>
-  <si>
     <t>Description or discussion of alternative formalizations (aka operationalizations) beyond mere recognition of their existence</t>
   </si>
   <si>
@@ -609,9 +799,6 @@
     <t>Design perspective: How is something modeled?</t>
   </si>
   <si>
-    <t xml:space="preserve">Insight perspective: What did we learn from the models? </t>
-  </si>
-  <si>
     <t>Effect perspective: Like classical meta-analysis in medicine and psychology.</t>
   </si>
   <si>
@@ -663,6 +850,9 @@
     <t>E.g. differences in the simulation platforms, different random number generator or scheduling objects?</t>
   </si>
   <si>
+    <t>{We do not expect this to be done often. We start with only yes/no assessment and come back to it}</t>
+  </si>
+  <si>
     <t>Did we learn anything else to do systematic literature reviews better?</t>
   </si>
   <si>
@@ -715,9 +905,6 @@
   </si>
   <si>
     <t>E.g. exclusion of articels if they do not have enough citations.</t>
-  </si>
-  <si>
-    <t>Whether the year or a exact date as long as a "cut-off time" is disclosed so you dont have to guess based on the publishing date.</t>
   </si>
   <si>
     <t>Not only a "cut-off time" but defined range with start and end time.</t>
@@ -798,9 +985,6 @@
     <t>Approach unclear</t>
   </si>
   <si>
-    <t>{Please remark here which "Other"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Are (peer-reviewed) "journal articles"  explicitly reported to be included in the review sample? </t>
   </si>
   <si>
@@ -825,38 +1009,9 @@
     <t>Have multiple researchers been involved in the selection process? (If yes, report used intercoder-rater measures in the comment)</t>
   </si>
   <si>
-    <t>{add which intercoder-rater measure was used}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Has a list of the articles finally included in the review been disclosed separatly? </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Referring to the previous question, what tools are used for the methods referred to in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q37.1-Q37.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> above? </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Using any kind of tranparent structure (e.g. existing or developed categories) to  extract information. Either structure is determined deductivly (e.g. categories from ODD or derived from literature/RQ) or it is derived inductivly from the sample set. However, in the latter case this process must be reported transperantly (not enough to just present themed subheadings). </t>
   </si>
   <si>
@@ -899,37 +1054,61 @@
     <t>As can be seen in the search string or as indicated in the text. Using "agent-based" and "multi-agent" already counts as varying.</t>
   </si>
   <si>
-    <t>Last update: 12.08.2022</t>
-  </si>
-  <si>
-    <t>Spatial simulation: A spatial perspective on individual-based
-ecology—a review</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Chapter 3.1. "contribution to theory2</t>
-  </si>
-  <si>
-    <t>Takes a strong perspective on the modelling practice. Not sure if this is actually a "new" perspective.</t>
-  </si>
-  <si>
-    <t>Yes, as it gives comprehensive recommendations on how to move forward.</t>
-  </si>
-  <si>
-    <t>See chapter 2.6</t>
+    <t xml:space="preserve">How many public databases have been used in the sample selection process? </t>
+  </si>
+  <si>
+    <t>not mentioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a public database-driven search approach was conducted, which database(s) is (are) used? </t>
+  </si>
+  <si>
+    <t>(public) Database-Driven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the year or a exact date as long as a "cut-off time" is disclosed so you dont have to guess based on the publishing date. Reportet search date from Q13 does not count as "disclosed point in time". </t>
+  </si>
+  <si>
+    <t>Insight perspective: What new did we learn from the models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referring to the previous question, what tools are used for the methods referred to in Q37.1-Q37.6 above? </t>
+  </si>
+  <si>
+    <t>Identify gaps, research avenues, challenges that have to be addressed or offering recommendations forward.</t>
+  </si>
+  <si>
+    <t>Last update: 22.08.2022</t>
+  </si>
+  <si>
+    <t>Spatial simulation: A spatial perspective on individual-based ecology—a review</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Q33.7 (see comment)</t>
+  </si>
+  <si>
+    <t>But explicit mentions of theory are made in the analysis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,15 +1260,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,8 +1338,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1189,33 +1377,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1261,24 +1422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1290,28 +1433,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1411,12 +1532,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,77 +1553,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1510,264 +1612,282 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2020,30 +2140,46 @@
   <threadedComment ref="C61" dT="2022-08-12T14:06:04.99" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{08A49E7E-B6AD-4FFF-BB26-6E2BEA2EB13D}">
     <text>Deleted the question that was previously here (Q29) and replaced it what was previously Q20 but reformulated.</text>
   </threadedComment>
+  <threadedComment ref="F68" dT="2022-08-16T14:21:51.48" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{431E34FD-B631-4B12-8A6B-61AFA8561D31}">
+    <text>Focus on mechanism / or focus on interaction/ Can we integrate Q33.1 with Q33.2?</text>
+  </threadedComment>
+  <threadedComment ref="F69" dT="2022-08-16T14:21:08.10" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{93047AFB-BFE6-4D88-88D0-5178F5382564}">
+    <text>Focus is on comparison</text>
+  </threadedComment>
+  <threadedComment ref="C71" dT="2022-08-22T12:52:40.15" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{256795F3-0828-44FC-9AC5-BBE4107EDFFA}">
+    <text>formulation extended by challenges and recommendations.</text>
+  </threadedComment>
+  <threadedComment ref="F71" dT="2022-08-16T14:27:52.40" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{7F60CE47-D158-4D66-B96B-598923B29814}">
+    <text>Be strikt what to include here. Only when it is a focus of the study, more then one paragraph.</text>
+  </threadedComment>
+  <threadedComment ref="F72" dT="2022-08-16T14:23:28.14" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{F6CF5D79-E3B9-4BF4-9D4C-E8D5F1750E1A}">
+    <text>Focus purely on formalization. Different from focus on "representation" in Q33.2</text>
+  </threadedComment>
+  <threadedComment ref="F78" dT="2022-08-16T15:42:08.36" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{F573599B-FFA5-4FEF-BBA2-F76BEDEB2A5C}">
+    <text>Apart from how something is modeled.</text>
+  </threadedComment>
   <threadedComment ref="C86" dT="2022-07-29T08:27:52.27" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{99C26C65-61A7-490A-AD50-9154440AF5DE}">
     <text>Extended the explanation to make clear what defines a structured comparison.</text>
-  </threadedComment>
-  <threadedComment ref="I86" dT="2022-07-29T07:19:07.03" personId="{7E3A1C85-06E8-46C0-83AC-8D7DCE8212F2}" id="{3E682C6C-C64D-4A33-BF59-02273A10293A}">
-    <text>Extend: What is strucuted: a priori deductivly or inductivly but then with disclosed process.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:M990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -2116,20 +2252,20 @@
       <c r="J6" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="129"/>
+      <c r="M10" s="105"/>
     </row>
     <row r="11" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -2166,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2204,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2237,10 +2373,10 @@
         <v>22</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -2255,8 +2391,8 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="131" t="s">
-        <v>194</v>
+      <c r="G14" s="107" t="s">
+        <v>185</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2307,19 +2443,19 @@
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3296,7 +3432,7 @@
     <mergeCell ref="B10:J10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{8EFD4C59-B6FC-4FE3-8294-1F891C549374}"/>
+    <hyperlink ref="E20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3304,22 +3440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L96" sqref="L96"/>
+      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="6" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="2.6640625" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
@@ -3336,74 +3472,76 @@
       <c r="A1" s="9"/>
       <c r="C1" s="10"/>
       <c r="F1" s="11"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="L2" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="L2" s="143" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="139"/>
+      <c r="M2" s="141"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="C3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="L3" s="138" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="139"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="L3" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="141"/>
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="C4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="L4" s="140" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="141"/>
+      <c r="L4" s="142" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="143"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -3412,169 +3550,167 @@
       <c r="C6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="L6" s="121"/>
+      <c r="M6" s="122"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>165</v>
+      <c r="C7" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="102"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="124"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="28">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="92" t="str">
+      <c r="C9" s="70" t="str">
         <f>TEXT(SUM(B$7:B9),"Q#")</f>
         <v>Q1</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="76"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="58"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="34">
+      <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="114" t="str">
+      <c r="C10" s="92" t="str">
         <f>TEXT(SUM(B$7:B10),"Q#")</f>
         <v>Q2</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="113" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="37" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="27"/>
+      <c r="L10" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="M10" s="32"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="D12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3582,223 +3718,221 @@
       <c r="B13" s="18">
         <v>1</v>
       </c>
-      <c r="C13" s="119" t="str">
+      <c r="C13" s="96" t="str">
         <f>TEXT(SUM(B$9:B13),"Q#")</f>
         <v>Q3</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="96" t="s">
-        <v>161</v>
+        <v>31</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="74" t="s">
+        <v>155</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
+        <v>47</v>
+      </c>
+      <c r="L13" s="121"/>
+      <c r="M13" s="95"/>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="119" t="str">
+      <c r="C14" s="96" t="str">
         <f>_xlfn.CONCAT($C$13,".1")</f>
         <v>Q3.1</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="62" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="108"/>
+      <c r="H14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="86"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="115"/>
-      <c r="N14" s="9"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="119"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="119" t="str">
+      <c r="C15" s="96" t="str">
         <f>_xlfn.CONCAT($C$13,".2")</f>
         <v>Q3.2</v>
       </c>
-      <c r="F15" s="81" t="s">
-        <v>11</v>
+      <c r="F15" s="111" t="s">
+        <v>191</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="108"/>
+      <c r="H15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="86"/>
       <c r="J15" s="18"/>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="115"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="119"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="119" t="str">
+      <c r="C16" s="96" t="str">
         <f>_xlfn.CONCAT($C$13,".3")</f>
         <v>Q3.3</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="108"/>
+      <c r="H16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="86"/>
       <c r="J16" s="18"/>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="115"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="119"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="119" t="str">
+      <c r="C17" s="96" t="str">
         <f>_xlfn.CONCAT($C$13,".4")</f>
         <v>Q3.4</v>
       </c>
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="94" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="108"/>
+      <c r="H17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="86"/>
       <c r="J17" s="18"/>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="9"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="119"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="119" t="str">
+      <c r="C18" s="96" t="str">
         <f>_xlfn.CONCAT($C$13,".5")</f>
         <v>Q3.5</v>
       </c>
-      <c r="F18" s="116" t="s">
-        <v>170</v>
+      <c r="F18" s="94" t="s">
+        <v>164</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="108"/>
+      <c r="H18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="86"/>
       <c r="J18" s="18"/>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="119"/>
     </row>
     <row r="19" spans="1:14" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="28">
+      <c r="B20" s="24">
         <v>1</v>
       </c>
-      <c r="C20" s="59" t="str">
+      <c r="C20" s="44" t="str">
         <f>TEXT(SUM(B$7:B20),"Q#")</f>
         <v>Q4</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="32"/>
+      <c r="J20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="58"/>
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="28">
+      <c r="B21" s="24">
         <v>1</v>
       </c>
-      <c r="C21" s="120" t="str">
+      <c r="C21" s="97" t="str">
         <f>TEXT(SUM(B$7:B21),"Q#")</f>
         <v>Q5</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="32"/>
+      <c r="G21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="58"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -3811,201 +3945,201 @@
         <v>Q6</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>195</v>
+        <v>31</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="L22" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="93"/>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="130"/>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="28">
+      <c r="B24" s="24">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="str">
+      <c r="C24" s="44" t="str">
         <f>TEXT(SUM(B$7:B24),"Q#")</f>
         <v>Q7</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="31" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="32"/>
+      <c r="M24" s="58"/>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="28">
+      <c r="B25" s="24">
         <v>1</v>
       </c>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="44" t="str">
         <f>TEXT(SUM(B$7:B25),"Q#")</f>
         <v>Q8</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="31" t="s">
+      <c r="J25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="32"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="28">
+      <c r="B26" s="24">
         <v>1</v>
       </c>
-      <c r="C26" s="59" t="str">
+      <c r="C26" s="44" t="str">
         <f>TEXT(SUM(B$7:B26),"Q#")</f>
         <v>Q9</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="31" t="s">
+      <c r="J26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="28">
+      <c r="B27" s="24">
         <v>1</v>
       </c>
-      <c r="C27" s="59" t="str">
+      <c r="C27" s="44" t="str">
         <f>TEXT(SUM(B$7:B27),"Q#")</f>
         <v>Q10</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="31" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="32"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="62">
+      <c r="B28" s="47">
         <v>1</v>
       </c>
-      <c r="C28" s="63" t="str">
+      <c r="C28" s="48" t="str">
         <f>TEXT(SUM(B$7:B28),"Q#")</f>
         <v>Q11</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="62"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="68"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="52"/>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4017,22 +4151,22 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="69" t="s">
-        <v>30</v>
+      <c r="F29" s="109" t="s">
+        <v>189</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="34"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="44"/>
+      <c r="M29" s="93"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4044,22 +4178,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="69" t="s">
-        <v>66</v>
+      <c r="F30" s="53" t="s">
+        <v>62</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="34"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="44"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4071,22 +4205,22 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="69" t="s">
-        <v>67</v>
+      <c r="F31" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="34"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="43" t="s">
+      <c r="L31" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="44"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4098,545 +4232,545 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="69" t="s">
-        <v>68</v>
+      <c r="F32" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="34"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="44"/>
+      <c r="M32" s="93"/>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="59" t="str">
+      <c r="B33" s="24"/>
+      <c r="C33" s="44" t="str">
         <f>_xlfn.CONCAT($C$28,".5")</f>
         <v>Q11.5</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="31" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="32"/>
+      <c r="M33" s="58"/>
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="28">
+      <c r="B34" s="24">
         <v>1</v>
       </c>
-      <c r="C34" s="59" t="str">
+      <c r="C34" s="44" t="str">
         <f>TEXT(SUM(B$7:B34),"Q#")</f>
         <v>Q12</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="31" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="45"/>
+      <c r="J34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="58"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="122">
+      <c r="B35" s="99">
         <v>1</v>
       </c>
-      <c r="C35" s="125" t="str">
+      <c r="C35" s="102" t="str">
         <f>TEXT(SUM(B$7:B35),"Q#")</f>
         <v>Q13</v>
       </c>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="122"/>
-      <c r="H35" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="43" t="s">
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="99"/>
+      <c r="H35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="115"/>
-      <c r="N35" s="9"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="119"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
+      <c r="D36" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="128"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="58"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="130"/>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="28">
+      <c r="B38" s="24">
         <v>1</v>
       </c>
-      <c r="C38" s="59" t="str">
+      <c r="C38" s="44" t="str">
         <f>TEXT(SUM(B$9:B38),"Q#")</f>
         <v>Q14</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="31" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="45"/>
+      <c r="J38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="33" t="s">
-        <v>75</v>
+      <c r="M38" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="28">
+      <c r="B39" s="24">
         <v>1</v>
       </c>
-      <c r="C39" s="120" t="str">
+      <c r="C39" s="97" t="str">
         <f>TEXT(SUM(B$7:B39),"Q#")</f>
         <v>Q15</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="109" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="28"/>
-      <c r="L39" s="31" t="s">
+      <c r="K39" s="24"/>
+      <c r="L39" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N39" s="9"/>
+      <c r="M39" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39" s="119"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="28">
+      <c r="B40" s="24">
         <v>1</v>
       </c>
-      <c r="C40" s="120" t="str">
+      <c r="C40" s="97" t="str">
         <f>TEXT(SUM(B$7:B40),"Q#")</f>
         <v>Q16</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="109" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="45"/>
+      <c r="J40" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="60"/>
-      <c r="J40" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="31" t="s">
+      <c r="K40" s="24"/>
+      <c r="L40" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="9"/>
+      <c r="M40" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N40" s="119"/>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="28">
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="120" t="str">
+      <c r="C41" s="97" t="str">
         <f>TEXT(SUM(B$7:B41),"Q#")</f>
         <v>Q17</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="60"/>
-      <c r="J41" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="31" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="24"/>
+      <c r="L41" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N41" s="9"/>
+      <c r="M41" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N41" s="119"/>
     </row>
     <row r="42" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="28">
+      <c r="B42" s="24">
         <v>1</v>
       </c>
-      <c r="C42" s="120" t="str">
+      <c r="C42" s="97" t="str">
         <f>TEXT(SUM(B$7:B42),"Q#")</f>
         <v>Q18</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="28"/>
-      <c r="L42" s="31" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="9"/>
+      <c r="M42" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" s="119"/>
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="28">
+      <c r="B43" s="24">
         <v>1</v>
       </c>
-      <c r="C43" s="120" t="str">
+      <c r="C43" s="97" t="str">
         <f>TEXT(SUM(B$7:B43),"Q#")</f>
         <v>Q19</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="31" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="N43" s="9"/>
+      <c r="M43" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N43" s="119"/>
     </row>
     <row r="44" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="28">
+      <c r="B44" s="24">
         <v>1</v>
       </c>
-      <c r="C44" s="120" t="str">
+      <c r="C44" s="97" t="str">
         <f>TEXT(SUM(B$7:B44),"Q#")</f>
         <v>Q20</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="31" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="24"/>
+      <c r="L44" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="9"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="119"/>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="28">
+      <c r="B45" s="24">
         <v>1</v>
       </c>
-      <c r="C45" s="93" t="str">
+      <c r="C45" s="71" t="str">
         <f>TEXT(SUM(B$7:B45),"Q#")</f>
         <v>Q21</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="37" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="28"/>
-      <c r="L45" s="74" t="s">
+      <c r="K45" s="24"/>
+      <c r="L45" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="75"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="34">
+      <c r="B46" s="27">
         <v>1</v>
       </c>
-      <c r="C46" s="93" t="str">
+      <c r="C46" s="71" t="str">
         <f>TEXT(SUM(B$7:B46),"Q#")</f>
         <v>Q22</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="37" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="39" t="s">
+      <c r="K46" s="27"/>
+      <c r="L46" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="40"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="34">
+      <c r="B47" s="27">
         <v>1</v>
       </c>
-      <c r="C47" s="35" t="str">
+      <c r="C47" s="28" t="str">
         <f>TEXT(SUM(B$7:B47),"Q#")</f>
         <v>Q23</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="37" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="34"/>
-      <c r="L47" s="144" t="s">
+      <c r="K47" s="27"/>
+      <c r="L47" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="40" t="s">
-        <v>84</v>
+      <c r="M47" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="34">
+      <c r="B48" s="27">
         <v>1</v>
       </c>
-      <c r="C48" s="35" t="str">
+      <c r="C48" s="28" t="str">
         <f>TEXT(SUM(B$7:B48),"Q#")</f>
         <v>Q24</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="34"/>
-      <c r="L48" s="79" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="L48" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="M48" s="40"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="34">
+      <c r="B49" s="27">
         <v>1</v>
       </c>
-      <c r="C49" s="114" t="str">
+      <c r="C49" s="92" t="str">
         <f>TEXT(SUM(B$7:B49),"Q#")</f>
         <v>Q25</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="31" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="27"/>
+      <c r="L49" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="40"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4644,283 +4778,281 @@
       <c r="B50" s="18">
         <v>1</v>
       </c>
-      <c r="C50" s="119" t="str">
+      <c r="C50" s="96" t="str">
         <f>TEXT(SUM(B$7:B50),"Q#")</f>
         <v>Q26</v>
       </c>
-      <c r="F50" s="116" t="s">
-        <v>179</v>
+      <c r="F50" s="94" t="s">
+        <v>172</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>187</v>
+        <v>31</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="N50" s="9"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="119"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="52"/>
+      <c r="D51" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="128"/>
       <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="130"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="28">
+      <c r="B53" s="24">
         <v>1</v>
       </c>
-      <c r="C53" s="120" t="str">
+      <c r="C53" s="112" t="str">
         <f>TEXT(SUM(B$7:B53),"Q#")</f>
         <v>Q27</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I53" s="60"/>
-      <c r="J53" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="32"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="100"/>
+      <c r="J53" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="99"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="58"/>
       <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="128" t="str">
+      <c r="B54" s="24"/>
+      <c r="C54" s="115" t="str">
         <f>_xlfn.CONCAT($C$53,".1")</f>
         <v>Q27.1</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="61" t="s">
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="82"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="31" t="s">
+      <c r="G54" s="99"/>
+      <c r="H54" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="100"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="76"/>
-      <c r="N54" s="9"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="119"/>
     </row>
     <row r="55" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="128" t="str">
+      <c r="B55" s="24"/>
+      <c r="C55" s="115" t="str">
         <f>_xlfn.CONCAT($C$53,".2")</f>
         <v>Q27.2</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="61" t="s">
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="82"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="31" t="s">
+      <c r="G55" s="99"/>
+      <c r="H55" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="100"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="76"/>
-      <c r="N55" s="9"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="119"/>
     </row>
     <row r="56" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="120" t="str">
+      <c r="B56" s="24"/>
+      <c r="C56" s="112" t="str">
         <f>_xlfn.CONCAT($C$53,".3")</f>
         <v>Q27.3</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="61" t="s">
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="82"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="31" t="s">
+      <c r="G56" s="99"/>
+      <c r="H56" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="100"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M56" s="76"/>
-      <c r="N56" s="9"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="119"/>
     </row>
     <row r="57" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="120" t="str">
+      <c r="B57" s="24"/>
+      <c r="C57" s="112" t="str">
         <f>_xlfn.CONCAT($C$53,".4")</f>
         <v>Q27.4</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="61" t="s">
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="82"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="31" t="s">
+      <c r="G57" s="99"/>
+      <c r="H57" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="100"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="76"/>
-      <c r="N57" s="9"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="119"/>
     </row>
     <row r="58" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="120" t="str">
+      <c r="B58" s="24"/>
+      <c r="C58" s="112" t="str">
         <f>_xlfn.CONCAT($C$53,".5")</f>
         <v>Q27.5</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="61" t="s">
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58" s="82"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M58" s="76"/>
-      <c r="N58" s="9"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="100"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="58"/>
+      <c r="N58" s="119"/>
     </row>
     <row r="59" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="120" t="str">
+      <c r="B59" s="24"/>
+      <c r="C59" s="97" t="str">
         <f>_xlfn.CONCAT($C$53,".6")</f>
         <v>Q27.6</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="I59" s="82"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="31" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="63"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="76"/>
-      <c r="N59" s="9"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="119"/>
     </row>
     <row r="60" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="28">
+      <c r="B60" s="24">
         <v>1</v>
       </c>
-      <c r="C60" s="120" t="str">
+      <c r="C60" s="97" t="str">
         <f>TEXT(SUM(B$7:B60),"Q#")</f>
         <v>Q28</v>
       </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K60" s="28"/>
-      <c r="L60" s="31" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" s="24"/>
+      <c r="L60" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="32"/>
+      <c r="M60" s="58"/>
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -4928,166 +5060,166 @@
       <c r="B61" s="18">
         <v>1</v>
       </c>
-      <c r="C61" s="119" t="str">
+      <c r="C61" s="96" t="str">
         <f>TEXT(SUM(B$7:B61),"Q#")</f>
         <v>Q29</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="I61" s="42" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="H61" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L61" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="M61" s="44"/>
-      <c r="N61" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="L61" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="M61" s="93"/>
+      <c r="N61" s="119"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="58"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="130"/>
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="1:14" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="28">
+      <c r="B63" s="24">
         <v>1</v>
       </c>
-      <c r="C63" s="120" t="str">
+      <c r="C63" s="97" t="str">
         <f>TEXT(SUM(B$7:B63),"Q#")</f>
         <v>Q30</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K63" s="28"/>
-      <c r="L63" s="31" t="s">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="24"/>
+      <c r="L63" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M63" s="32"/>
+      <c r="M63" s="58"/>
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="28">
+      <c r="B64" s="24">
         <v>1</v>
       </c>
-      <c r="C64" s="92" t="str">
+      <c r="C64" s="70" t="str">
         <f>TEXT(SUM(B$7:B64),"Q#")</f>
         <v>Q31</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="30" t="s">
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="J64" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64" s="28"/>
-      <c r="L64" s="31" t="s">
+      <c r="K64" s="24"/>
+      <c r="L64" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M64" s="32"/>
+      <c r="M64" s="58"/>
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="28">
+      <c r="B65" s="24">
         <v>1</v>
       </c>
-      <c r="C65" s="59" t="str">
+      <c r="C65" s="44" t="str">
         <f>TEXT(SUM(B$7:B65),"Q#")</f>
         <v>Q32</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="83"/>
-      <c r="J65" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K65" s="28"/>
-      <c r="L65" s="31" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="64"/>
+      <c r="J65" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="32"/>
+      <c r="M65" s="58"/>
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="80"/>
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14" ht="75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5095,228 +5227,228 @@
       <c r="B67" s="18">
         <v>1</v>
       </c>
-      <c r="C67" s="94" t="str">
+      <c r="C67" s="72" t="str">
         <f>TEXT(SUM(B$9:B67),"Q#")</f>
         <v>Q33</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I67" s="84" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" s="19"/>
-      <c r="M67" s="85" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="L67" s="121"/>
+      <c r="M67" s="95" t="s">
+        <v>97</v>
       </c>
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14" ht="39.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="C68" s="94" t="str">
+      <c r="C68" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".1")</f>
         <v>Q33.1</v>
       </c>
-      <c r="F68" s="86" t="s">
-        <v>102</v>
+      <c r="F68" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M68" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="L68" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" s="93"/>
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="C69" s="94" t="str">
+      <c r="C69" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".2")</f>
         <v>Q33.2</v>
       </c>
-      <c r="F69" s="86" t="s">
-        <v>103</v>
+      <c r="F69" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="L69" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M69" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="L69" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" s="93"/>
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="C70" s="94" t="str">
+      <c r="C70" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".3")</f>
         <v>Q33.3</v>
       </c>
-      <c r="F70" s="86" t="s">
-        <v>104</v>
+      <c r="F70" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="L70" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M70" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" s="93"/>
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="C71" s="94" t="str">
+      <c r="C71" s="96" t="str">
         <f>_xlfn.CONCAT($C$67,".4")</f>
         <v>Q33.4</v>
       </c>
-      <c r="F71" s="69" t="s">
-        <v>105</v>
+      <c r="F71" s="117" t="s">
+        <v>195</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I71" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="L71" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="L71" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M71" s="44"/>
+      <c r="M71" s="93"/>
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="1:14" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="C72" s="94" t="str">
+      <c r="C72" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".5")</f>
         <v>Q33.5</v>
       </c>
-      <c r="F72" s="86" t="s">
-        <v>106</v>
+      <c r="F72" s="66" t="s">
+        <v>101</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="L72" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="L72" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="44"/>
+      <c r="M72" s="93"/>
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="C73" s="94" t="str">
+      <c r="C73" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".6")</f>
         <v>Q33.6</v>
       </c>
-      <c r="F73" s="86" t="s">
-        <v>107</v>
+      <c r="F73" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="L73" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="L73" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M73" s="44"/>
+      <c r="M73" s="93"/>
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="C74" s="94" t="str">
+      <c r="C74" s="72" t="str">
         <f>_xlfn.CONCAT($C$67,".7")</f>
         <v>Q33.7</v>
       </c>
-      <c r="F74" s="86" t="s">
-        <v>109</v>
+      <c r="F74" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="L74" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M74" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="L74" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="M74" s="93" t="s">
         <v>200</v>
       </c>
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="92" t="str">
+      <c r="B75" s="24"/>
+      <c r="C75" s="70" t="str">
         <f>_xlfn.CONCAT($C$67,".8")</f>
         <v>Q33.8</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I75" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="31" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M75" s="32"/>
+      <c r="M75" s="58"/>
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5329,22 +5461,22 @@
         <v>Q34</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I76" s="84" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="65" t="s">
+        <v>108</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L76" s="19"/>
-      <c r="M76" s="88"/>
+        <v>42</v>
+      </c>
+      <c r="L76" s="121"/>
+      <c r="M76" s="95"/>
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5353,22 +5485,22 @@
         <f>_xlfn.CONCAT($C$76,".1")</f>
         <v>Q34.1</v>
       </c>
-      <c r="F77" s="69" t="s">
-        <v>114</v>
+      <c r="F77" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="136" t="s">
-        <v>158</v>
-      </c>
-      <c r="L77" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="L77" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M77" s="44"/>
+      <c r="M77" s="93"/>
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5377,20 +5509,20 @@
         <f>_xlfn.CONCAT($C$76,".2")</f>
         <v>Q34.2</v>
       </c>
-      <c r="F78" s="69" t="s">
-        <v>115</v>
+      <c r="F78" s="109" t="s">
+        <v>193</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="137"/>
-      <c r="L78" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M78" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="139"/>
+      <c r="L78" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" s="93"/>
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5399,111 +5531,109 @@
         <f>_xlfn.CONCAT($C$76,".3")</f>
         <v>Q34.3</v>
       </c>
-      <c r="F79" s="69" t="s">
-        <v>116</v>
+      <c r="F79" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="137"/>
-      <c r="L79" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="139"/>
+      <c r="L79" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M79" s="44"/>
+      <c r="M79" s="93"/>
       <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="59" t="str">
+      <c r="B80" s="24"/>
+      <c r="C80" s="44" t="str">
         <f>_xlfn.CONCAT($C$76,".4")</f>
         <v>Q34.4</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="30" t="s">
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="I80" s="60"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="145" t="s">
-        <v>201</v>
-      </c>
-      <c r="M80" s="32" t="s">
-        <v>32</v>
-      </c>
+      <c r="G80" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="45"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="58"/>
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="28">
+      <c r="B81" s="24">
         <v>1</v>
       </c>
-      <c r="C81" s="92" t="str">
+      <c r="C81" s="70" t="str">
         <f>TEXT(SUM(B$7:B81),"Q#")</f>
         <v>Q35</v>
       </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I81" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="J81" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81" s="28"/>
-      <c r="L81" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="M81" s="32"/>
-      <c r="N81" s="9"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81" s="24"/>
+      <c r="L81" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="58"/>
+      <c r="N81" s="119"/>
     </row>
     <row r="82" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
-      <c r="B82" s="28">
+      <c r="B82" s="24">
         <v>1</v>
       </c>
-      <c r="C82" s="63" t="str">
+      <c r="C82" s="48" t="str">
         <f>TEXT(SUM(B$7:B82),"Q#")</f>
         <v>Q36</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82" s="62"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="68"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="51"/>
+      <c r="J82" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K82" s="47"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="52"/>
       <c r="N82" s="9"/>
     </row>
     <row r="83" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5512,22 +5642,22 @@
         <f>_xlfn.CONCAT($C$82,".1")</f>
         <v>Q36.1</v>
       </c>
-      <c r="F83" s="69" t="s">
-        <v>121</v>
+      <c r="F83" s="53" t="s">
+        <v>115</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I83" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="L83" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L83" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="44"/>
+      <c r="M83" s="93"/>
       <c r="N83" s="9"/>
     </row>
     <row r="84" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5536,22 +5666,22 @@
         <f>_xlfn.CONCAT($C$82,".2")</f>
         <v>Q36.2</v>
       </c>
-      <c r="F84" s="69" t="s">
-        <v>123</v>
+      <c r="F84" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I84" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="L84" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="L84" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M84" s="44"/>
+      <c r="M84" s="93"/>
       <c r="N84" s="9"/>
     </row>
     <row r="85" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5560,54 +5690,54 @@
         <f>_xlfn.CONCAT($C$82,".3")</f>
         <v>Q36.3</v>
       </c>
-      <c r="F85" s="69" t="s">
-        <v>125</v>
+      <c r="F85" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="L85" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="L85" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M85" s="44"/>
+      <c r="M85" s="93"/>
       <c r="N85" s="9"/>
     </row>
     <row r="86" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
-      <c r="C86" s="119" t="str">
+      <c r="C86" s="96" t="str">
         <f>_xlfn.CONCAT($C$82,".4")</f>
         <v>Q36.4</v>
       </c>
-      <c r="F86" s="95" t="s">
-        <v>159</v>
+      <c r="F86" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I86" s="111" t="s">
-        <v>183</v>
+        <v>31</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="89" t="s">
+        <v>174</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L86" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M86" s="44"/>
+      <c r="M86" s="93"/>
       <c r="N86" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5616,180 +5746,180 @@
         <f>_xlfn.CONCAT($C$82,".5")</f>
         <v>Q36.5</v>
       </c>
-      <c r="F87" s="69" t="s">
-        <v>127</v>
+      <c r="F87" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I87" s="97" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L87" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M87" s="44"/>
+      <c r="M87" s="93"/>
       <c r="N87" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="92" t="str">
+      <c r="B88" s="24"/>
+      <c r="C88" s="70" t="str">
         <f>_xlfn.CONCAT($C$82,".6")</f>
         <v>Q36.6</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="31" t="s">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="M88" s="32"/>
+      <c r="M88" s="58"/>
       <c r="N88" s="9"/>
     </row>
     <row r="89" spans="1:14" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
-      <c r="B89" s="28">
+      <c r="B89" s="24">
         <v>1</v>
       </c>
-      <c r="C89" s="59" t="str">
+      <c r="C89" s="44" t="str">
         <f>TEXT(SUM(B$7:B89),"Q#")</f>
         <v>Q37</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="G89" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="J89" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89" s="28"/>
-      <c r="L89" s="31" t="s">
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K89" s="24"/>
+      <c r="L89" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="32"/>
+      <c r="M89" s="58"/>
       <c r="N89" s="9"/>
     </row>
     <row r="90" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
-      <c r="B90" s="28">
+      <c r="B90" s="24">
         <v>1</v>
       </c>
-      <c r="C90" s="59" t="str">
+      <c r="C90" s="44" t="str">
         <f>TEXT(SUM(B$7:B90),"Q#")</f>
         <v>Q38</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="G90" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="30" t="s">
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="J90" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I90" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="J90" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K90" s="28"/>
-      <c r="L90" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M90" s="32" t="s">
-        <v>203</v>
+      <c r="K90" s="24"/>
+      <c r="L90" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="M90" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="N90" s="9"/>
     </row>
     <row r="91" spans="1:14" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
-      <c r="B91" s="28">
+      <c r="B91" s="24">
         <v>1</v>
       </c>
-      <c r="C91" s="59" t="str">
+      <c r="C91" s="44" t="str">
         <f>TEXT(SUM(B$7:B91),"Q#")</f>
         <v>Q39</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G91" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I91" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="J91" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91" s="28"/>
-      <c r="L91" s="31" t="s">
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I91" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K91" s="24"/>
+      <c r="L91" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="32"/>
+      <c r="M91" s="58"/>
       <c r="N91" s="9"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H92" s="24"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="27"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="80"/>
       <c r="N92" s="9"/>
     </row>
     <row r="93" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5797,30 +5927,30 @@
       <c r="B93" s="9">
         <v>1</v>
       </c>
-      <c r="C93" s="59" t="str">
+      <c r="C93" s="44" t="str">
         <f>TEXT(SUM(B$7:B93),"Q#")</f>
         <v>Q40</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="28"/>
-      <c r="H93" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I93" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="J93" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93" s="28"/>
-      <c r="L93" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M93" s="91"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I93" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93" s="24"/>
+      <c r="L93" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" s="134"/>
       <c r="N93" s="9"/>
     </row>
     <row r="94" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5828,30 +5958,30 @@
       <c r="B94" s="9">
         <v>1</v>
       </c>
-      <c r="C94" s="59" t="str">
+      <c r="C94" s="44" t="str">
         <f>TEXT(SUM(B$7:B94),"Q#")</f>
         <v>Q41</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" s="28"/>
-      <c r="H94" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I94" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="J94" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K94" s="28"/>
-      <c r="L94" s="31" t="s">
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I94" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K94" s="24"/>
+      <c r="L94" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="M94" s="91"/>
+      <c r="M94" s="134"/>
       <c r="N94" s="9"/>
     </row>
     <row r="95" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5859,30 +5989,30 @@
       <c r="B95" s="9">
         <v>1</v>
       </c>
-      <c r="C95" s="59" t="str">
+      <c r="C95" s="44" t="str">
         <f>TEXT(SUM(B$7:B95),"Q#")</f>
         <v>Q42</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="28"/>
-      <c r="H95" s="30" t="s">
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" s="24"/>
+      <c r="H95" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I95" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="I95" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="J95" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K95" s="28"/>
-      <c r="L95" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M95" s="91"/>
+      <c r="J95" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K95" s="24"/>
+      <c r="L95" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" s="134"/>
       <c r="N95" s="9"/>
     </row>
     <row r="96" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5890,30 +6020,30 @@
       <c r="B96" s="9">
         <v>1</v>
       </c>
-      <c r="C96" s="59" t="str">
+      <c r="C96" s="44" t="str">
         <f>TEXT(SUM(B$7:B96),"Q#")</f>
         <v>Q43</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" s="28"/>
-      <c r="H96" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I96" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="J96" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K96" s="28"/>
-      <c r="L96" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M96" s="91"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I96" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96" s="24"/>
+      <c r="L96" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M96" s="134"/>
       <c r="N96" s="9"/>
     </row>
     <row r="97" spans="1:14" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -5921,30 +6051,30 @@
       <c r="B97" s="9">
         <v>1</v>
       </c>
-      <c r="C97" s="59" t="str">
+      <c r="C97" s="44" t="str">
         <f>TEXT(SUM(B$7:B97),"Q#")</f>
         <v>Q44</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G97" s="28"/>
-      <c r="H97" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I97" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="J97" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K97" s="28"/>
-      <c r="L97" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="M97" s="91"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97" s="24"/>
+      <c r="L97" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="M97" s="134"/>
       <c r="N97" s="9"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11422,106 +11552,17 @@
     <mergeCell ref="H2:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I83" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="I84" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="I85" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I83" r:id="rId1"/>
+    <hyperlink ref="I84" r:id="rId2"/>
+    <hyperlink ref="I85" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1141" yWindow="547" count="12">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Type in free text or select &quot;No&quot; from dropdown-list" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>Control!$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>L33 L49 L75 L80:L81 L88</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Control!$I$11:$I$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer - Make sure you enter an integer value?" xr:uid="{00000000-0002-0000-0100-000004000000}">
-          <x14:formula1>
-            <xm:f>Control!$J$11:$J$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>L93:L97</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Type in integer value or select &quot;n/a&quot; from dropdown-list" xr:uid="{00000000-0002-0000-0100-000005000000}">
-          <x14:formula1>
-            <xm:f>Control!$E$13:$E$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>L48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Type in integer value or select &quot;n/a&quot; from dropdown-list" xr:uid="{00000000-0002-0000-0100-000006000000}">
-          <x14:formula1>
-            <xm:f>Control!$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L27 L65</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
-          <x14:formula1>
-            <xm:f>Control!$D$11:$D$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L20:L22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Type in free text or select &quot;n/a&quot; from dropdown-list" xr:uid="{00000000-0002-0000-0100-000009000000}">
-          <x14:formula1>
-            <xm:f>Control!$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L89 L91</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
-          <x14:formula1>
-            <xm:f>Control!$B$11:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>L24:L26 L29:L32 L14:L18 L63:L64 L68:L74 L77:L79 L83:L87 L90 L7 L34:L35 L54:L60 L38:L47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
-          <x14:formula1>
-            <xm:f>Control!$G$11:$G$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>L50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select from list or type in new category" xr:uid="{00000000-0002-0000-0100-00000C000000}">
-          <x14:formula1>
-            <xm:f>Control!$F$11:$F$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>L53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70BB1B32-BD76-41F9-A25A-1EE126E8C85C}">
-          <x14:formula1>
-            <xm:f>Control!$L$11:$L$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{3F10E49F-101B-4726-9C04-DB9E39F61731}">
-          <x14:formula1>
-            <xm:f>Control!$M$11:$M$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L61</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11530,7 +11571,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E28E13ACBC000A4C890C7EF62115DE09" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="38c6947b388da27d619d5996577e48bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6" xmlns:ns3="36965efa-5a39-45c9-9312-a4f852bee1e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b0d313870efd85b4f0f8b7717aad82c" ns2:_="" ns3:_="">
     <xsd:import namespace="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
@@ -11755,18 +11796,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072C8801-02D8-41B4-9C3A-C0871C6DF7B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
-    <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{118A9060-EF27-4670-A7BD-5FE79C142D77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -11774,7 +11815,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACD51B1-C9C5-4587-980D-DB52F05C9F9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11791,4 +11832,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072C8801-02D8-41B4-9C3A-C0871C6DF7B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
+    <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>